--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Organization.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:19:42+00:00</t>
+    <t>2025-07-25T10:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Organization.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T13:53:43+00:00</t>
+    <t>2025-07-28T11:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -272,7 +272,7 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
-    <t>Entités juridiques</t>
+    <t>EntiteJuridique</t>
   </si>
   <si>
     <t>(also see master files messages)</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Organization.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T11:47:16+00:00</t>
+    <t>2025-07-28T13:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,7 +234,7 @@
     <t>Constraint(s)</t>
   </si>
   <si>
-    <t>Mapping: ESSMS Entités juridiques</t>
+    <t>Mapping: Modèle de contenu DUI</t>
   </si>
   <si>
     <t>Mapping: HL7 v2 Mapping</t>
@@ -2271,7 +2271,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="32.09765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="39.109375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="187.0625" customWidth="true" bestFit="true"/>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Organization.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:00:34+00:00</t>
+    <t>2025-07-29T08:16:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Organization.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T08:16:15+00:00</t>
+    <t>2025-07-30T16:43:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Organization.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:43:10+00:00</t>
+    <t>2025-07-31T07:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Organization.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T07:16:30+00:00</t>
+    <t>2025-07-31T07:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Organization.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T07:17:41+00:00</t>
+    <t>2025-07-31T10:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Organization.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-Organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T10:47:16+00:00</t>
+    <t>2025-07-31T12:59:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
